--- a/End of Season Teams.xlsx
+++ b/End of Season Teams.xlsx
@@ -2968,7 +2968,7 @@
     <t>1998-99</t>
   </si>
   <si>
-    <t>1997-97</t>
+    <t>1997-98</t>
   </si>
   <si>
     <t>1996-97</t>

--- a/End of Season Teams.xlsx
+++ b/End of Season Teams.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16303" uniqueCount="1036">
   <si>
-    <t>year</t>
+    <t>season_ending_year</t>
   </si>
   <si>
     <t>lg</t>
